--- a/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,66 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>不條理</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>부조리(Ignore)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>自敍傳</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>자서전</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>厭世的</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>염세적(Unjustly)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>恣意的</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>자의적(Tadpole)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>聯關性</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>연관성(Corporation)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,6 +709,102 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>如反掌</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>여반장</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>自鳴鐘</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>자명종</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>姑息策</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>고식책(Auction)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>苦肉策</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>고육책(Struggle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>彌縫策</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>미봉책</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>不動産</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>不可能</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>불가능(impossible)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>干拓地</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>간척지</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>소방관</t>
+          <t>소방관(Fire officer)</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>과학자(Scientist)</t>
+          <t>과학자</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>연구원</t>
+          <t>연구원(硏 硏 硏 硏)</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>체계적(Systemic)</t>
+          <t>체계적</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>포물선(parabola)</t>
+          <t>포물선</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>유명세</t>
+          <t>유명세(Famous tax)</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>복불복</t>
+          <t>복불복(Be blessed)</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>세도가(Taoist)</t>
+          <t>세도가</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>구설수</t>
+          <t>구설수(Number of tongue)</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>도전자(Challenger)</t>
+          <t>도전자</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>불가피(unavoidable)</t>
+          <t>불가피</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>서약서(Oath)</t>
+          <t>서약서</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>자의성(Arbitrarily)</t>
+          <t>자의성</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>지자체(Ground)</t>
+          <t>지자체</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>자존심</t>
+          <t>자존심(Self -esteem)</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>자존성</t>
+          <t>자존성(Self -survival)</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>교도관</t>
+          <t>교도관(Chief instructor)</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>부조리(Ignore)</t>
+          <t>부조리</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>자서전</t>
+          <t>자서전(Self -narrative)</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>염세적(Unjustly)</t>
+          <t>염세적</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>자의적(Tadpole)</t>
+          <t>자의적</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>연관성(Corporation)</t>
+          <t>연관성</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>여반장</t>
+          <t>여반장(Like a palm)</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>자명종</t>
+          <t>자명종(Self -confidence)</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>고식책(Auction)</t>
+          <t>고식책</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>고육책(Struggle)</t>
+          <t>고육책</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>미봉책</t>
+          <t>미봉책(Sewing measures)</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>부동산</t>
+          <t>부동산(real estate)</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>불가능(impossible)</t>
+          <t>불가능</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>간척지</t>
+          <t>간척지(Reclamation land)</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>과학자</t>
+          <t>과학자(Scientist)</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>연구원(硏 硏 硏 硏)</t>
+          <t>연구원</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>체계적</t>
+          <t>체계적(Systemic)</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>포물선</t>
+          <t>포물선(parabola)</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>세도가</t>
+          <t>세도가(Taoist)</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>구설수(Number of tongue)</t>
+          <t>구설수</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>도전자</t>
+          <t>도전자(Challenger)</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>불가피</t>
+          <t>불가피(unavoidable)</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>서약서</t>
+          <t>서약서(Oath)</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>자의성</t>
+          <t>자의성(Arbitrarily)</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>지자체</t>
+          <t>지자체(Ground)</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>부조리</t>
+          <t>부조리(Ignore)</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>염세적</t>
+          <t>염세적(Unjustly)</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>자의적</t>
+          <t>자의적(Tadpole)</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>연관성</t>
+          <t>연관성(Corporation)</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>여반장(Like a palm)</t>
+          <t>여반장</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>고식책</t>
+          <t>고식책(Auction)</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>고육책</t>
+          <t>고육책(Struggle)</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>불가능</t>
+          <t>불가능(impossible)</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,6 +805,66 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>沒常識</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>몰상식(Unsight)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>再檢討</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>재검토(Review)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>平準化</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>평준화(Leveling)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>標準語</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>표준어(Standard language)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>死亡率</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>사망률(mortality rate)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,6 +865,90 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>長廣舌</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>장광설</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>辨別力</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>변별력(Discern)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>辨證法</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>변증법(Dialectical method)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>辯護士</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>변호사(Clerk)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>揭示板</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>게시판(Revealing board)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>浮揚策</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>부양책(Floating measures)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>健忘症</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>건망증(amnesia)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
+++ b/학습자료/단답형/국어_복습_한자어3글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,6 +949,78 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>牽引車</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>견인차(Trajectory)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>起爆劑</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>기폭제(Burst)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>試金石</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>시금석(touchstone)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>防腐劑</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>방부제(preservative)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>下馬評</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>하마평</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>裁量權</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>재량권(Tailoring)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
